--- a/DataTypes_in_Java.xlsx
+++ b/DataTypes_in_Java.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Veni [TL] Complete HolidayHome - General Insurance</t>
   </si>
@@ -150,9 +150,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>true/false</t>
-  </si>
-  <si>
     <t xml:space="preserve">char </t>
   </si>
   <si>
@@ -172,6 +169,15 @@
   </si>
   <si>
     <t>NonPrimitive Datatype</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>depends on JVM</t>
+  </si>
+  <si>
+    <t>32bit</t>
   </si>
 </sst>
 </file>
@@ -757,41 +763,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -799,27 +809,33 @@
         <v>36</v>
       </c>
       <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>-128</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
         <v>-32768</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>32767</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -829,74 +845,92 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
